--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf17-Fgfr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf17-Fgfr1.xlsx
@@ -540,16 +540,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.09983000000000002</v>
+        <v>0.1816793333333333</v>
       </c>
       <c r="H2">
-        <v>0.29949</v>
+        <v>0.545038</v>
       </c>
       <c r="I2">
-        <v>0.3237663226376972</v>
+        <v>0.3544748187589303</v>
       </c>
       <c r="J2">
-        <v>0.3237663226376972</v>
+        <v>0.3544748187589304</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.25548833333333</v>
+        <v>13.67700833333333</v>
       </c>
       <c r="N2">
-        <v>30.766465</v>
+        <v>41.031025</v>
       </c>
       <c r="O2">
-        <v>0.09996462463766298</v>
+        <v>0.124413831206147</v>
       </c>
       <c r="P2">
-        <v>0.09996462463766297</v>
+        <v>0.124413831206147</v>
       </c>
       <c r="Q2">
-        <v>1.023805400316667</v>
+        <v>2.484829755994444</v>
       </c>
       <c r="R2">
-        <v>9.214248602850002</v>
+        <v>22.36346780395</v>
       </c>
       <c r="S2">
-        <v>0.03236517891279389</v>
+        <v>0.04410157026790309</v>
       </c>
       <c r="T2">
-        <v>0.03236517891279388</v>
+        <v>0.0441015702679031</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.09983000000000002</v>
+        <v>0.1816793333333333</v>
       </c>
       <c r="H3">
-        <v>0.29949</v>
+        <v>0.545038</v>
       </c>
       <c r="I3">
-        <v>0.3237663226376972</v>
+        <v>0.3544748187589303</v>
       </c>
       <c r="J3">
-        <v>0.3237663226376972</v>
+        <v>0.3544748187589304</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>74.649396</v>
+        <v>74.64939600000001</v>
       </c>
       <c r="N3">
         <v>223.948188</v>
       </c>
       <c r="O3">
-        <v>0.7276395436298834</v>
+        <v>0.679053278848249</v>
       </c>
       <c r="P3">
-        <v>0.7276395436298831</v>
+        <v>0.6790532788482488</v>
       </c>
       <c r="Q3">
-        <v>7.452249202680001</v>
+        <v>13.562252499016</v>
       </c>
       <c r="R3">
-        <v>67.07024282412</v>
+        <v>122.060272491144</v>
       </c>
       <c r="S3">
-        <v>0.2355851792468196</v>
+        <v>0.2407072879473904</v>
       </c>
       <c r="T3">
-        <v>0.2355851792468195</v>
+        <v>0.2407072879473904</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.09983000000000002</v>
+        <v>0.1816793333333333</v>
       </c>
       <c r="H4">
-        <v>0.29949</v>
+        <v>0.545038</v>
       </c>
       <c r="I4">
-        <v>0.3237663226376972</v>
+        <v>0.3544748187589303</v>
       </c>
       <c r="J4">
-        <v>0.3237663226376972</v>
+        <v>0.3544748187589304</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.869824</v>
+        <v>1.629335666666667</v>
       </c>
       <c r="N4">
-        <v>2.609472</v>
+        <v>4.888007</v>
       </c>
       <c r="O4">
-        <v>0.008478546007235205</v>
+        <v>0.01482136207497777</v>
       </c>
       <c r="P4">
-        <v>0.008478546007235204</v>
+        <v>0.01482136207497777</v>
       </c>
       <c r="Q4">
-        <v>0.08683452992000001</v>
+        <v>0.2960166176962222</v>
       </c>
       <c r="R4">
-        <v>0.7815107692800002</v>
+        <v>2.664149559266</v>
       </c>
       <c r="S4">
-        <v>0.002745067662077073</v>
+        <v>0.005253799635288229</v>
       </c>
       <c r="T4">
-        <v>0.002745067662077072</v>
+        <v>0.00525379963528823</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.09983000000000002</v>
+        <v>0.1816793333333333</v>
       </c>
       <c r="H5">
-        <v>0.29949</v>
+        <v>0.545038</v>
       </c>
       <c r="I5">
-        <v>0.3237663226376972</v>
+        <v>0.3544748187589303</v>
       </c>
       <c r="J5">
-        <v>0.3237663226376972</v>
+        <v>0.3544748187589304</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.20207433333333</v>
+        <v>19.17462033333333</v>
       </c>
       <c r="N5">
-        <v>48.606223</v>
+        <v>57.523861</v>
       </c>
       <c r="O5">
-        <v>0.1579285380120706</v>
+        <v>0.174423230537864</v>
       </c>
       <c r="P5">
-        <v>0.1579285380120706</v>
+        <v>0.174423230537864</v>
       </c>
       <c r="Q5">
-        <v>1.617453080696667</v>
+        <v>3.483632239079778</v>
       </c>
       <c r="R5">
-        <v>14.55707772627</v>
+        <v>31.352690151718</v>
       </c>
       <c r="S5">
-        <v>0.05113194199171589</v>
+        <v>0.06182864303225645</v>
       </c>
       <c r="T5">
-        <v>0.05113194199171587</v>
+        <v>0.06182864303225647</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.09983000000000002</v>
+        <v>0.1816793333333333</v>
       </c>
       <c r="H6">
-        <v>0.29949</v>
+        <v>0.545038</v>
       </c>
       <c r="I6">
-        <v>0.3237663226376972</v>
+        <v>0.3544748187589303</v>
       </c>
       <c r="J6">
-        <v>0.3237663226376972</v>
+        <v>0.3544748187589304</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6143926666666666</v>
+        <v>0.801214</v>
       </c>
       <c r="N6">
-        <v>1.843178</v>
+        <v>2.403642</v>
       </c>
       <c r="O6">
-        <v>0.005988747713148012</v>
+        <v>0.007288297332762355</v>
       </c>
       <c r="P6">
-        <v>0.00598874771314801</v>
+        <v>0.007288297332762355</v>
       </c>
       <c r="Q6">
-        <v>0.06133481991333334</v>
+        <v>0.1455640253773333</v>
       </c>
       <c r="R6">
-        <v>0.55201337922</v>
+        <v>1.310076228396</v>
       </c>
       <c r="S6">
-        <v>0.001938954824290851</v>
+        <v>0.002583517876092131</v>
       </c>
       <c r="T6">
-        <v>0.00193895482429085</v>
+        <v>0.002583517876092132</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.07524966666666666</v>
+        <v>0.07524966666666667</v>
       </c>
       <c r="H7">
         <v>0.225749</v>
       </c>
       <c r="I7">
-        <v>0.2440479600959548</v>
+        <v>0.14681973708257</v>
       </c>
       <c r="J7">
-        <v>0.2440479600959548</v>
+        <v>0.14681973708257</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.25548833333333</v>
+        <v>13.67700833333333</v>
       </c>
       <c r="N7">
-        <v>30.766465</v>
+        <v>41.031025</v>
       </c>
       <c r="O7">
-        <v>0.09996462463766298</v>
+        <v>0.124413831206147</v>
       </c>
       <c r="P7">
-        <v>0.09996462463766297</v>
+        <v>0.124413831206147</v>
       </c>
       <c r="Q7">
-        <v>0.7717220785872222</v>
+        <v>1.029190318080556</v>
       </c>
       <c r="R7">
-        <v>6.945498707285</v>
+        <v>9.262712862724999</v>
       </c>
       <c r="S7">
-        <v>0.02439616272457947</v>
+        <v>0.01826640598712173</v>
       </c>
       <c r="T7">
-        <v>0.02439616272457947</v>
+        <v>0.01826640598712173</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.07524966666666666</v>
+        <v>0.07524966666666667</v>
       </c>
       <c r="H8">
         <v>0.225749</v>
       </c>
       <c r="I8">
-        <v>0.2440479600959548</v>
+        <v>0.14681973708257</v>
       </c>
       <c r="J8">
-        <v>0.2440479600959548</v>
+        <v>0.14681973708257</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>74.649396</v>
+        <v>74.64939600000001</v>
       </c>
       <c r="N8">
         <v>223.948188</v>
       </c>
       <c r="O8">
-        <v>0.7276395436298834</v>
+        <v>0.679053278848249</v>
       </c>
       <c r="P8">
-        <v>0.7276395436298831</v>
+        <v>0.6790532788482488</v>
       </c>
       <c r="Q8">
-        <v>5.617342165867999</v>
+        <v>5.617342165868001</v>
       </c>
       <c r="R8">
-        <v>50.55607949281199</v>
+        <v>50.556079492812</v>
       </c>
       <c r="S8">
-        <v>0.1775789463080245</v>
+        <v>0.09969842386555697</v>
       </c>
       <c r="T8">
-        <v>0.1775789463080245</v>
+        <v>0.09969842386555695</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.07524966666666666</v>
+        <v>0.07524966666666667</v>
       </c>
       <c r="H9">
         <v>0.225749</v>
       </c>
       <c r="I9">
-        <v>0.2440479600959548</v>
+        <v>0.14681973708257</v>
       </c>
       <c r="J9">
-        <v>0.2440479600959548</v>
+        <v>0.14681973708257</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.869824</v>
+        <v>1.629335666666667</v>
       </c>
       <c r="N9">
-        <v>2.609472</v>
+        <v>4.888007</v>
       </c>
       <c r="O9">
-        <v>0.008478546007235205</v>
+        <v>0.01482136207497777</v>
       </c>
       <c r="P9">
-        <v>0.008478546007235204</v>
+        <v>0.01482136207497777</v>
       </c>
       <c r="Q9">
-        <v>0.06545396605866666</v>
+        <v>0.1226069658047778</v>
       </c>
       <c r="R9">
-        <v>0.589085694528</v>
+        <v>1.103462692243</v>
       </c>
       <c r="S9">
-        <v>0.002069171857645454</v>
+        <v>0.00217606848305381</v>
       </c>
       <c r="T9">
-        <v>0.002069171857645454</v>
+        <v>0.00217606848305381</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.07524966666666666</v>
+        <v>0.07524966666666667</v>
       </c>
       <c r="H10">
         <v>0.225749</v>
       </c>
       <c r="I10">
-        <v>0.2440479600959548</v>
+        <v>0.14681973708257</v>
       </c>
       <c r="J10">
-        <v>0.2440479600959548</v>
+        <v>0.14681973708257</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>16.20207433333333</v>
+        <v>19.17462033333333</v>
       </c>
       <c r="N10">
-        <v>48.606223</v>
+        <v>57.523861</v>
       </c>
       <c r="O10">
-        <v>0.1579285380120706</v>
+        <v>0.174423230537864</v>
       </c>
       <c r="P10">
-        <v>0.1579285380120706</v>
+        <v>0.174423230537864</v>
       </c>
       <c r="Q10">
-        <v>1.219200692891889</v>
+        <v>1.442883788543222</v>
       </c>
       <c r="R10">
-        <v>10.972806236027</v>
+        <v>12.985954096889</v>
       </c>
       <c r="S10">
-        <v>0.03854213754278229</v>
+        <v>0.02560877284866168</v>
       </c>
       <c r="T10">
-        <v>0.03854213754278228</v>
+        <v>0.02560877284866168</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.07524966666666666</v>
+        <v>0.07524966666666667</v>
       </c>
       <c r="H11">
         <v>0.225749</v>
       </c>
       <c r="I11">
-        <v>0.2440479600959548</v>
+        <v>0.14681973708257</v>
       </c>
       <c r="J11">
-        <v>0.2440479600959548</v>
+        <v>0.14681973708257</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.6143926666666666</v>
+        <v>0.801214</v>
       </c>
       <c r="N11">
-        <v>1.843178</v>
+        <v>2.403642</v>
       </c>
       <c r="O11">
-        <v>0.005988747713148012</v>
+        <v>0.007288297332762355</v>
       </c>
       <c r="P11">
-        <v>0.00598874771314801</v>
+        <v>0.007288297332762355</v>
       </c>
       <c r="Q11">
-        <v>0.0462328433691111</v>
+        <v>0.06029108642866667</v>
       </c>
       <c r="R11">
-        <v>0.4160955903219999</v>
+        <v>0.542619777858</v>
       </c>
       <c r="S11">
-        <v>0.001461541662923086</v>
+        <v>0.001070065898175765</v>
       </c>
       <c r="T11">
-        <v>0.001461541662923086</v>
+        <v>0.001070065898175765</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.13326</v>
+        <v>0.255602</v>
       </c>
       <c r="H12">
-        <v>0.39978</v>
+        <v>0.766806</v>
       </c>
       <c r="I12">
-        <v>0.4321857172663481</v>
+        <v>0.4987054441584996</v>
       </c>
       <c r="J12">
-        <v>0.4321857172663481</v>
+        <v>0.4987054441584997</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.25548833333333</v>
+        <v>13.67700833333333</v>
       </c>
       <c r="N12">
-        <v>30.766465</v>
+        <v>41.031025</v>
       </c>
       <c r="O12">
-        <v>0.09996462463766298</v>
+        <v>0.124413831206147</v>
       </c>
       <c r="P12">
-        <v>0.09996462463766297</v>
+        <v>0.124413831206147</v>
       </c>
       <c r="Q12">
-        <v>1.3666463753</v>
+        <v>3.495870684016666</v>
       </c>
       <c r="R12">
-        <v>12.2998173777</v>
+        <v>31.46283615615</v>
       </c>
       <c r="S12">
-        <v>0.04320328300028962</v>
+        <v>0.06204585495112212</v>
       </c>
       <c r="T12">
-        <v>0.04320328300028962</v>
+        <v>0.06204585495112212</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.13326</v>
+        <v>0.255602</v>
       </c>
       <c r="H13">
-        <v>0.39978</v>
+        <v>0.766806</v>
       </c>
       <c r="I13">
-        <v>0.4321857172663481</v>
+        <v>0.4987054441584996</v>
       </c>
       <c r="J13">
-        <v>0.4321857172663481</v>
+        <v>0.4987054441584997</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>74.649396</v>
+        <v>74.64939600000001</v>
       </c>
       <c r="N13">
         <v>223.948188</v>
       </c>
       <c r="O13">
-        <v>0.7276395436298834</v>
+        <v>0.679053278848249</v>
       </c>
       <c r="P13">
-        <v>0.7276395436298831</v>
+        <v>0.6790532788482488</v>
       </c>
       <c r="Q13">
-        <v>9.947778510960001</v>
+        <v>19.080534916392</v>
       </c>
       <c r="R13">
-        <v>89.53000659864</v>
+        <v>171.724814247528</v>
       </c>
       <c r="S13">
-        <v>0.3144754180750393</v>
+        <v>0.3386475670353015</v>
       </c>
       <c r="T13">
-        <v>0.3144754180750392</v>
+        <v>0.3386475670353015</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>25</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.13326</v>
+        <v>0.255602</v>
       </c>
       <c r="H14">
-        <v>0.39978</v>
+        <v>0.766806</v>
       </c>
       <c r="I14">
-        <v>0.4321857172663481</v>
+        <v>0.4987054441584996</v>
       </c>
       <c r="J14">
-        <v>0.4321857172663481</v>
+        <v>0.4987054441584997</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.869824</v>
+        <v>1.629335666666667</v>
       </c>
       <c r="N14">
-        <v>2.609472</v>
+        <v>4.888007</v>
       </c>
       <c r="O14">
-        <v>0.008478546007235205</v>
+        <v>0.01482136207497777</v>
       </c>
       <c r="P14">
-        <v>0.008478546007235204</v>
+        <v>0.01482136207497777</v>
       </c>
       <c r="Q14">
-        <v>0.11591274624</v>
+        <v>0.4164614550713334</v>
       </c>
       <c r="R14">
-        <v>1.04321471616</v>
+        <v>3.748153095642</v>
       </c>
       <c r="S14">
-        <v>0.003664306487512679</v>
+        <v>0.007391493956635731</v>
       </c>
       <c r="T14">
-        <v>0.003664306487512678</v>
+        <v>0.007391493956635731</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>22</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.13326</v>
+        <v>0.255602</v>
       </c>
       <c r="H15">
-        <v>0.39978</v>
+        <v>0.766806</v>
       </c>
       <c r="I15">
-        <v>0.4321857172663481</v>
+        <v>0.4987054441584996</v>
       </c>
       <c r="J15">
-        <v>0.4321857172663481</v>
+        <v>0.4987054441584997</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>16.20207433333333</v>
+        <v>19.17462033333333</v>
       </c>
       <c r="N15">
-        <v>48.606223</v>
+        <v>57.523861</v>
       </c>
       <c r="O15">
-        <v>0.1579285380120706</v>
+        <v>0.174423230537864</v>
       </c>
       <c r="P15">
-        <v>0.1579285380120706</v>
+        <v>0.174423230537864</v>
       </c>
       <c r="Q15">
-        <v>2.15908842566</v>
+        <v>4.901071306440667</v>
       </c>
       <c r="R15">
-        <v>19.43179583094</v>
+        <v>44.109641757966</v>
       </c>
       <c r="S15">
-        <v>0.06825445847757246</v>
+        <v>0.08698581465694583</v>
       </c>
       <c r="T15">
-        <v>0.06825445847757244</v>
+        <v>0.08698581465694584</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>26</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.13326</v>
+        <v>0.255602</v>
       </c>
       <c r="H16">
-        <v>0.39978</v>
+        <v>0.766806</v>
       </c>
       <c r="I16">
-        <v>0.4321857172663481</v>
+        <v>0.4987054441584996</v>
       </c>
       <c r="J16">
-        <v>0.4321857172663481</v>
+        <v>0.4987054441584997</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.6143926666666666</v>
+        <v>0.801214</v>
       </c>
       <c r="N16">
-        <v>1.843178</v>
+        <v>2.403642</v>
       </c>
       <c r="O16">
-        <v>0.005988747713148012</v>
+        <v>0.007288297332762355</v>
       </c>
       <c r="P16">
-        <v>0.00598874771314801</v>
+        <v>0.007288297332762355</v>
       </c>
       <c r="Q16">
-        <v>0.08187396676</v>
+        <v>0.204791900828</v>
       </c>
       <c r="R16">
-        <v>0.7368657008399999</v>
+        <v>1.843127107452</v>
       </c>
       <c r="S16">
-        <v>0.002588251225934075</v>
+        <v>0.003634713558494458</v>
       </c>
       <c r="T16">
-        <v>0.002588251225934075</v>
+        <v>0.003634713558494458</v>
       </c>
     </row>
   </sheetData>
